--- a/scRNAseq_Markers_glutamatergic_neurons.xlsx
+++ b/scRNAseq_Markers_glutamatergic_neurons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m277494\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ADC3F98-B627-4911-ADC3-BFDB4517C478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50DD3A-B0B2-4455-82B2-19F6CA899599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6BCC206F-D4E8-447D-855E-B1EC9D7D101E}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>RORB, FOXP2</t>
   </si>
   <si>
-    <t>THEMIS, FEZF2</t>
+    <t>THEMIS, FEZF2, C1QL3, SCN4B</t>
   </si>
 </sst>
 </file>
@@ -475,13 +475,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
